--- a/MS Excel Namrata (1) (2) (3) (2) (2) (2) (1) (2) (1).xlsx
+++ b/MS Excel Namrata (1) (2) (3) (2) (2) (2) (1) (2) (1).xlsx
@@ -2,29 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="22" activeTab="26"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="11" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="16" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="17" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="18" r:id="rId16"/>
-    <sheet name="Sheet17" sheetId="19" r:id="rId17"/>
-    <sheet name="Sheet18" sheetId="20" r:id="rId18"/>
+    <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
+    <sheet name="BASIC" sheetId="4" r:id="rId2"/>
+    <sheet name="TIPS &amp; TRICKS" sheetId="5" r:id="rId3"/>
+    <sheet name="TEXT_TO_COLUMN" sheetId="6" r:id="rId4"/>
+    <sheet name="TEXT_FUNCTIONS" sheetId="7" r:id="rId5"/>
+    <sheet name="LOGICAL OPERATOR" sheetId="8" r:id="rId6"/>
+    <sheet name="LOGICAL_FUNCTIONS" sheetId="9" r:id="rId7"/>
+    <sheet name="DATE_FUNCTIONS" sheetId="10" r:id="rId8"/>
+    <sheet name="NAME_RANGE_WITH_FORMULA" sheetId="11" r:id="rId9"/>
+    <sheet name="COUNT_IF" sheetId="12" r:id="rId10"/>
+    <sheet name="STATISTICAL_FUNCTIONS" sheetId="13" r:id="rId11"/>
+    <sheet name="V-LOOKUP" sheetId="14" r:id="rId12"/>
+    <sheet name="HYPERLINK" sheetId="15" r:id="rId13"/>
+    <sheet name="CHARTS" sheetId="16" r:id="rId14"/>
+    <sheet name="FINANCE_FUNCTIONS" sheetId="17" r:id="rId15"/>
+    <sheet name="DROPDOWN &amp; barcode" sheetId="18" r:id="rId16"/>
+    <sheet name="MACROS" sheetId="19" r:id="rId17"/>
+    <sheet name="DATA_TYPES" sheetId="20" r:id="rId18"/>
     <sheet name="MAIL-MERGE" sheetId="21" r:id="rId19"/>
     <sheet name="PROJECTS" sheetId="22" r:id="rId20"/>
     <sheet name="STUDENT_MARKSHEET" sheetId="23" r:id="rId21"/>
@@ -33,14 +33,14 @@
     <sheet name="BILL ENTRY" sheetId="26" r:id="rId24"/>
     <sheet name="FORMS" sheetId="27" r:id="rId25"/>
     <sheet name="PROFIT &amp; LOSS" sheetId="28" r:id="rId26"/>
-    <sheet name="Sheet20" sheetId="29" r:id="rId27"/>
+    <sheet name="DOCUMENT PROTECTION" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="416">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform mathematical calculations on statistical data and totaling long columns of numbers or determining percentage and averages
 </t>
@@ -601,17 +601,11 @@
     <t>HYPERLINKS</t>
   </si>
   <si>
-    <t>GO TO DATE_FUNCTIONS</t>
-  </si>
-  <si>
     <t xml:space="preserve">You can use the HYPERLINK function to create a link that opens a document
 that is stored on a network server or the internet.
 When you click the cell that contains the HYPERLINK function,
 Excel opens the file that is stored at the location of the link.
 </t>
-  </si>
-  <si>
-    <t>link to sheet</t>
   </si>
   <si>
     <t>CHARTS</t>
@@ -686,84 +680,6 @@
     <t>DROPDOWN</t>
   </si>
   <si>
-    <t>WHOLESALE STORE</t>
-  </si>
-  <si>
-    <t>ITEMS               AVAILABILITY</t>
-  </si>
-  <si>
-    <t>shoes</t>
-  </si>
-  <si>
-    <t>tshirts</t>
-  </si>
-  <si>
-    <t>joggers</t>
-  </si>
-  <si>
-    <t>jordans</t>
-  </si>
-  <si>
-    <t>shirts</t>
-  </si>
-  <si>
-    <t>out of stock</t>
-  </si>
-  <si>
-    <t>SELECT PRODUCT</t>
-  </si>
-  <si>
-    <t>jeans</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>MORE PRODUCTS</t>
-  </si>
-  <si>
-    <t>tracksuits</t>
-  </si>
-  <si>
-    <t>basketball</t>
-  </si>
-  <si>
-    <t>converse</t>
-  </si>
-  <si>
-    <t>shorts</t>
-  </si>
-  <si>
-    <t>football</t>
-  </si>
-  <si>
-    <t>running shoes</t>
-  </si>
-  <si>
-    <t>bags</t>
-  </si>
-  <si>
-    <t>dufflebags</t>
-  </si>
-  <si>
-    <t>laptop bags</t>
-  </si>
-  <si>
-    <t>drones</t>
-  </si>
-  <si>
-    <t>socks</t>
-  </si>
-  <si>
-    <t>masks</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>hat</t>
-  </si>
-  <si>
     <t>What is Micros?</t>
   </si>
   <si>
@@ -1401,12 +1317,72 @@
   <si>
     <t>DOCUMENT PROTECTOR</t>
   </si>
+  <si>
+    <t>GO TO VLOOKUP</t>
+  </si>
+  <si>
+    <t>GEYZING</t>
+  </si>
+  <si>
+    <t>GANGTOK</t>
+  </si>
+  <si>
+    <t>MANGAN</t>
+  </si>
+  <si>
+    <t>NAMCHI</t>
+  </si>
+  <si>
+    <t>RASNA</t>
+  </si>
+  <si>
+    <t>NAMRATA</t>
+  </si>
+  <si>
+    <t>TULASHA</t>
+  </si>
+  <si>
+    <t>SHANTI</t>
+  </si>
+  <si>
+    <t>TSETEN</t>
+  </si>
+  <si>
+    <t>DAWA</t>
+  </si>
+  <si>
+    <t>LAXMI</t>
+  </si>
+  <si>
+    <t>JEENA</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>STAFF NAME</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>BUYER</t>
+  </si>
+  <si>
+    <t>SELLER</t>
+  </si>
+  <si>
+    <t>CONSUMER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1495,6 +1471,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="30">
@@ -1673,12 +1655,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1690,7 +1687,7 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1740,9 +1737,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1775,258 +1769,276 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2062,7 +2074,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet14!$D$8:$D$10</c:f>
+              <c:f>CHARTS!$D$8:$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2079,7 +2091,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet14!$E$8:$E$10</c:f>
+              <c:f>CHARTS!$E$8:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2101,7 +2113,7 @@
           <c:order val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet14!$D$8:$D$10</c:f>
+              <c:f>CHARTS!$D$8:$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2118,7 +2130,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet14!$F$8:$F$10</c:f>
+              <c:f>CHARTS!$F$8:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2135,24 +2147,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="99953280"/>
-        <c:axId val="99967360"/>
+        <c:axId val="67423616"/>
+        <c:axId val="68854912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99953280"/>
+        <c:axId val="67423616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99967360"/>
+        <c:crossAx val="68854912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99967360"/>
+        <c:axId val="68854912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,19 +2172,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99953280"/>
+        <c:crossAx val="67423616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3530,308 +3543,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="H8" s="51" t="s">
+      <c r="D8" s="55"/>
+      <c r="H8" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="49" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
     </row>
     <row r="24" spans="4:13">
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="4:13">
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
     </row>
     <row r="26" spans="4:13">
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="49" t="s">
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
     </row>
     <row r="29" spans="4:13">
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
     </row>
     <row r="30" spans="4:13">
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
     </row>
     <row r="31" spans="4:13">
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
     </row>
     <row r="32" spans="4:13">
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3851,6 +3865,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,39 +3875,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="92">
         <f>COUNTIF(B5:B14,"apples")</f>
         <v>2</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -3913,65 +3928,65 @@
       <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
@@ -3992,6 +4007,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4001,30 +4017,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="K4" s="69" t="s">
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="K4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
     </row>
     <row r="5" spans="1:18">
       <c r="E5" t="s">
@@ -4036,16 +4052,16 @@
       <c r="G5" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
     </row>
     <row r="6" spans="1:18">
       <c r="E6" t="s">
@@ -4057,14 +4073,14 @@
       <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
     </row>
     <row r="7" spans="1:18">
       <c r="E7" t="s">
@@ -4076,14 +4092,14 @@
       <c r="G7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
     </row>
     <row r="8" spans="1:18">
       <c r="E8" t="s">
@@ -4095,14 +4111,14 @@
       <c r="G8" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
     </row>
     <row r="9" spans="1:18">
       <c r="E9" t="s">
@@ -4114,74 +4130,74 @@
       <c r="G9" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="52" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="28">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="27">
         <f>SUMIF(F5:F9,"&lt;100")</f>
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="29">
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="28">
         <f>SUMIF(G5:G9,"computer",F5:F9)</f>
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="29"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="29">
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="28">
         <f>COUNTIF(F5:F9,"&gt;35")</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="29">
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="28">
         <f>AVERAGEIF(F5:F9,"&lt;45")</f>
         <v>33.333333333333336</v>
       </c>
@@ -4204,10 +4220,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4219,13 +4236,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="12" t="s">
@@ -4243,16 +4260,16 @@
         <f>VLOOKUP(A4,A9:D14,3,0)</f>
         <v>7865987789</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -4262,16 +4279,16 @@
         <f>VLOOKUP(A5,A9:D14,4,0)</f>
         <v>deorali</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -4281,14 +4298,14 @@
         <f>VLOOKUP(A6,A9:D14,2,0)</f>
         <v>eg@gmail.com</v>
       </c>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -4298,40 +4315,40 @@
         <f>VLOOKUP(A7,A9:D14,4,0)</f>
         <v>vajra</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
@@ -4346,14 +4363,14 @@
       <c r="D10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
@@ -4432,10 +4449,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4444,123 +4462,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="H4" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="H4" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
+      <c r="C6" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4569,12 +4584,16 @@
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="H4:M14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6:F6" location="'V-LOOKUP'!A1" display="GO TO VLOOKUP"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -4589,42 +4608,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="D8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E8">
         <v>4000</v>
@@ -4635,7 +4654,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="D9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E9">
         <v>300000</v>
@@ -4646,7 +4665,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="D10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10">
         <v>300000</v>
@@ -4656,106 +4675,106 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
+      <c r="B13" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="L21" s="97" t="s">
-        <v>177</v>
-      </c>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="L21" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4773,6 +4792,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -4785,106 +4805,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="H2" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="H2" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="L3" s="107" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="L3" s="104" t="s">
+      <c r="M3" t="s">
         <v>181</v>
-      </c>
-      <c r="M3" t="s">
-        <v>183</v>
       </c>
       <c r="N3" s="21">
         <v>6000000</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="L4" s="105"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="L4" s="108"/>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N4" s="22">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="L5" s="105"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="L5" s="108"/>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N5">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="L7" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N7" s="23">
         <f>PMT(N4/12,N5*12,N3)</f>
@@ -4892,70 +4912,70 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="102"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="L9" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="M9" s="97"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="L9" s="100" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" s="100"/>
       <c r="N9" s="23">
         <f>N7*30*12</f>
         <v>-11595347.057062184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="102"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4974,338 +4994,387 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="A1" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="H2" s="16" t="s">
-        <v>200</v>
-      </c>
+      <c r="H2" s="134"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="H3" s="20" t="s">
-        <v>201</v>
+      <c r="A3" s="137" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" s="136"/>
+      <c r="G3" s="138" t="s">
+        <v>409</v>
+      </c>
+      <c r="H3" s="141" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="H4" s="20" t="s">
-        <v>202</v>
+      <c r="A4" s="139" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="139" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="139" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" s="142" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="E5" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="52"/>
-      <c r="H5" s="20" t="s">
-        <v>203</v>
+      <c r="A5" s="139" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="140" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="140" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="139" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5" s="142" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="H6" s="20" t="s">
-        <v>204</v>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="139" t="s">
+        <v>399</v>
+      </c>
+      <c r="H6" s="142" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>205</v>
+      <c r="G7" s="139" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" s="142" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>201</v>
-      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>207</v>
-      </c>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="H11" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="H12" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="H13" s="20" t="s">
-        <v>210</v>
-      </c>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="H14" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="H15" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="H16" s="20" t="s">
-        <v>212</v>
-      </c>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="8:8">
-      <c r="H17" s="20" t="s">
-        <v>213</v>
-      </c>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="8:8">
-      <c r="H18" s="20" t="s">
-        <v>214</v>
-      </c>
+      <c r="H18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7">
+      <formula1>$A$3:$D$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4">
+      <formula1>$A$4:$A$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
+      <formula1>$B$4:$B$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
+      <formula1>$C$4:$C$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7">
+      <formula1>$D$4:$D$5</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U15"/>
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="107"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="107"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="B11" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="B13" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="108" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="B15" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>222</v>
-      </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="108"/>
+    <row r="1" spans="1:3" ht="23.25">
+      <c r="A1" s="143" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.25">
+      <c r="A2" s="143" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" s="144">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="144">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.25">
+      <c r="A3" s="143" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="144">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="144">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25">
+      <c r="A4" s="143" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="144">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="144">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="111" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
+      <c r="U18" s="111"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="111" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="111"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="111" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="D30" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="D31" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+    </row>
+    <row r="33" spans="4:8">
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+    </row>
+    <row r="34" spans="4:8">
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+    </row>
+    <row r="35" spans="4:8">
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+    </row>
+    <row r="37" spans="4:8">
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E9"/>
-    <mergeCell ref="C11:U11"/>
-    <mergeCell ref="C13:U13"/>
-    <mergeCell ref="C15:U15"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H38"/>
+    <mergeCell ref="C18:U18"/>
+    <mergeCell ref="C20:U20"/>
+    <mergeCell ref="C22:U22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5313,6 +5382,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5329,16 +5399,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5363,7 +5433,7 @@
         <v>2611000000000</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5373,6 +5443,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5389,151 +5460,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="C1" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="D1" s="35" t="s">
-        <v>389</v>
+      <c r="A1" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="45">
+      <c r="A2" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="44">
         <v>43880</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="36" t="s">
-        <v>370</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="45">
+      <c r="A3" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="44">
         <v>43936</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="45">
+      <c r="A4" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="44">
         <v>43880</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="45">
+      <c r="A5" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="44">
         <v>43862</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="46" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="B16" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="101" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="B17" s="104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5553,6 +5624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B4:O105"/>
   <sheetViews>
     <sheetView topLeftCell="A99" workbookViewId="0">
@@ -5562,319 +5634,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="2:14">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" s="1"/>
@@ -5891,6 +5963,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5900,53 +5973,53 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="109" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="A1" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="109"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="110" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="F13" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
+      <c r="A13" s="113" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="F13" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5965,6 +6038,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5987,183 +6061,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="112" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
+      <c r="A1" s="115" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="112"/>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="112"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="112"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="113" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
+      <c r="A7" s="116" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
       <c r="E7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M7" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="N7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="O7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="Q7" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F8">
         <v>80</v>
@@ -6193,7 +6267,7 @@
         <f t="shared" ref="N8:N17" si="0">SUM(F8:M8)</f>
         <v>550</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="29">
         <f t="shared" ref="O8:O17" si="1">N8/800</f>
         <v>0.6875</v>
       </c>
@@ -6208,16 +6282,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ref="E9:E17" si="2">UPPER(D9)</f>
@@ -6251,7 +6325,7 @@
         <f t="shared" si="0"/>
         <v>452</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="29">
         <f t="shared" si="1"/>
         <v>0.56499999999999995</v>
       </c>
@@ -6266,16 +6340,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="2"/>
@@ -6309,7 +6383,7 @@
         <f t="shared" si="0"/>
         <v>323</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="29">
         <f t="shared" si="1"/>
         <v>0.40375</v>
       </c>
@@ -6324,16 +6398,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="2"/>
@@ -6367,7 +6441,7 @@
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="29">
         <f t="shared" si="1"/>
         <v>0.65249999999999997</v>
       </c>
@@ -6382,16 +6456,16 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="2"/>
@@ -6425,7 +6499,7 @@
         <f t="shared" si="0"/>
         <v>459</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="29">
         <f t="shared" si="1"/>
         <v>0.57374999999999998</v>
       </c>
@@ -6440,16 +6514,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="D13" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="2"/>
@@ -6483,7 +6557,7 @@
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="29">
         <f t="shared" si="1"/>
         <v>0.6925</v>
       </c>
@@ -6494,16 +6568,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="2"/>
@@ -6537,23 +6611,23 @@
         <f t="shared" si="0"/>
         <v>605</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="29">
         <f t="shared" si="1"/>
         <v>0.75624999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="2"/>
@@ -6587,23 +6661,23 @@
         <f t="shared" si="0"/>
         <v>564</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="29">
         <f t="shared" si="1"/>
         <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="2"/>
@@ -6637,23 +6711,23 @@
         <f t="shared" si="0"/>
         <v>483</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="29">
         <f t="shared" si="1"/>
         <v>0.60375000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="D17" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="2"/>
@@ -6687,7 +6761,7 @@
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="O17" s="30">
+      <c r="O17" s="29">
         <f t="shared" si="1"/>
         <v>0.58125000000000004</v>
       </c>
@@ -6705,6 +6779,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6728,11 +6803,11 @@
   <sheetData>
     <row r="1" spans="1:20" ht="28.5">
       <c r="A1" s="12"/>
-      <c r="B1" s="123" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
+      <c r="B1" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -6743,39 +6818,39 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="102" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="105" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="101" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" s="101" t="s">
-        <v>314</v>
-      </c>
-      <c r="G2" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="H2" s="124" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
+      <c r="C2" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="121" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="117"/>
       <c r="M2" s="117"/>
       <c r="N2" s="117"/>
@@ -6785,17 +6860,17 @@
       <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="117"/>
       <c r="M3" s="117"/>
       <c r="N3" s="117"/>
@@ -6805,138 +6880,138 @@
       <c r="R3" s="117"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="119" t="s">
-        <v>295</v>
-      </c>
-      <c r="I4" s="119" t="s">
-        <v>296</v>
-      </c>
-      <c r="J4" s="125" t="s">
-        <v>316</v>
-      </c>
-      <c r="K4" s="120" t="s">
-        <v>318</v>
-      </c>
-      <c r="L4" s="120" t="s">
-        <v>315</v>
-      </c>
-      <c r="M4" s="121" t="s">
-        <v>317</v>
-      </c>
-      <c r="N4" s="121"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="125" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="115" t="s">
-        <v>320</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>321</v>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="123" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="118" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="122" t="s">
+        <v>287</v>
+      </c>
+      <c r="M4" s="124" t="s">
+        <v>289</v>
+      </c>
+      <c r="N4" s="124"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="118" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="127" t="s">
+        <v>292</v>
+      </c>
+      <c r="T4" s="70" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="67"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="71"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="96" t="s">
-        <v>297</v>
-      </c>
-      <c r="K6" s="96" t="s">
-        <v>298</v>
-      </c>
-      <c r="L6" s="119" t="s">
-        <v>296</v>
-      </c>
-      <c r="M6" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="N6" s="122" t="s">
-        <v>298</v>
-      </c>
-      <c r="O6" s="87" t="s">
-        <v>311</v>
-      </c>
-      <c r="P6" s="87" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q6" s="87" t="s">
-        <v>298</v>
-      </c>
-      <c r="R6" s="114" t="s">
-        <v>319</v>
-      </c>
-      <c r="S6" s="116"/>
-      <c r="T6" s="67"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="99" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="L6" s="123" t="s">
+        <v>268</v>
+      </c>
+      <c r="M6" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="N6" s="125" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q6" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="R6" s="126" t="s">
+        <v>291</v>
+      </c>
+      <c r="S6" s="128"/>
+      <c r="T6" s="71"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="102"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="67"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="71"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D8" s="14">
         <v>44228</v>
@@ -6947,36 +7022,36 @@
       <c r="F8">
         <v>102</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>20000</v>
       </c>
       <c r="H8" s="14">
         <v>44255</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="33">
         <v>21</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="33">
         <v>28</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="30">
         <f t="shared" ref="K8:K14" si="0">G8-(500*(I8-J8))</f>
         <v>23500</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="33">
         <v>20</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <v>25</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="33">
         <f t="shared" ref="N8:N14" si="1">G8-(500*(L8-M8))</f>
         <v>22500</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="33">
         <v>23</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="33">
         <v>24</v>
       </c>
       <c r="Q8">
@@ -6998,13 +7073,13 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D9" s="14">
         <v>44229</v>
@@ -7015,36 +7090,36 @@
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="30">
         <v>20000</v>
       </c>
       <c r="H9" s="14">
         <v>44256</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <v>21</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <v>25</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="30">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="33">
         <v>20</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <v>25</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="33">
         <f t="shared" si="1"/>
         <v>22500</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <v>23</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="32">
         <v>20</v>
       </c>
       <c r="Q9">
@@ -7066,13 +7141,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D10" s="14">
         <v>44230</v>
@@ -7083,36 +7158,36 @@
       <c r="F10">
         <v>106</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>20000</v>
       </c>
       <c r="H10" s="14">
         <v>44257</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="33">
         <v>21</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="33">
         <v>20</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
         <v>19500</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="33">
         <v>20</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <v>26</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="33">
         <f t="shared" si="1"/>
         <v>23000</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="33">
         <v>23</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="33">
         <v>23</v>
       </c>
       <c r="Q10">
@@ -7134,13 +7209,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D11" s="14">
         <v>44231</v>
@@ -7151,36 +7226,36 @@
       <c r="F11">
         <v>109</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>18000</v>
       </c>
       <c r="H11" s="14">
         <v>44258</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="33">
         <v>21</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="33">
         <v>18</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="33">
         <v>20</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <v>25</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="33">
         <f t="shared" si="1"/>
         <v>20500</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="33">
         <v>23</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="33">
         <v>26</v>
       </c>
       <c r="Q11">
@@ -7202,13 +7277,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D12" s="14">
         <v>44232</v>
@@ -7219,36 +7294,36 @@
       <c r="F12">
         <v>98</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>19000</v>
       </c>
       <c r="H12" s="14">
         <v>44259</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="33">
         <v>21</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="33">
         <v>25</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="33">
         <v>20</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <v>23</v>
       </c>
-      <c r="N12" s="34">
+      <c r="N12" s="33">
         <f t="shared" si="1"/>
         <v>20500</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="33">
         <v>23</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="33">
         <v>28</v>
       </c>
       <c r="Q12">
@@ -7270,13 +7345,13 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D13" s="14">
         <v>44233</v>
@@ -7287,36 +7362,36 @@
       <c r="F13">
         <v>90</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <v>20000</v>
       </c>
       <c r="H13" s="14">
         <v>44260</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="33">
         <v>21</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="33">
         <v>28</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
         <v>23500</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="33">
         <v>20</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <v>27</v>
       </c>
-      <c r="N13" s="34">
+      <c r="N13" s="33">
         <f t="shared" si="1"/>
         <v>23500</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="33">
         <v>23</v>
       </c>
-      <c r="P13" s="34">
+      <c r="P13" s="33">
         <v>18</v>
       </c>
       <c r="Q13">
@@ -7338,13 +7413,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D14" s="14">
         <v>44234</v>
@@ -7355,36 +7430,36 @@
       <c r="F14">
         <v>101</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <v>20000</v>
       </c>
       <c r="H14" s="14">
         <v>44261</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="33">
         <v>21</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="33">
         <v>19</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
         <v>19000</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="33">
         <v>20</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <v>19</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="33">
         <f t="shared" si="1"/>
         <v>19500</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="33">
         <v>23</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="33">
         <v>25</v>
       </c>
       <c r="Q14">
@@ -7415,64 +7490,64 @@
     <row r="17" spans="2:13">
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="M17" s="32"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" spans="2:13">
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="M18" s="32"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="M19" s="32"/>
+      <c r="B19" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M19" s="31"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" t="str">
         <f>INDEX(B8:B14,MATCH(MAX(S8:S14),S8:S14))</f>
         <v>neha</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="31"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
+      <c r="B21" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" t="str">
         <f>INDEX(B8:B14,MATCH(MIN(S8:S14),S8:S14))</f>
         <v>john</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="B22" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22">
         <f>AVERAGE(S8:S14)</f>
         <v>25285.714285714286</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="B23" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23">
         <f>SUM(S8:S14)</f>
         <v>177000</v>
@@ -7480,19 +7555,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H2:K3"/>
     <mergeCell ref="K4:K5"/>
@@ -7505,22 +7583,19 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7529,6 +7604,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7544,10 +7620,10 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
         <v>92</v>
@@ -7555,96 +7631,96 @@
     </row>
     <row r="3" spans="2:5" ht="65.25">
       <c r="B3" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="D3" t="str">
         <f>"("&amp;B3&amp;")"</f>
         <v>(GJ0012889)</v>
       </c>
-      <c r="E3" s="44" t="str">
+      <c r="E3" s="43" t="str">
         <f>"*"&amp;B3&amp;"*"</f>
         <v>*GJ0012889*</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="65.25">
       <c r="B4" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ref="D4:D8" si="0">"("&amp;B4&amp;")"</f>
         <v>(GJ0012890)</v>
       </c>
-      <c r="E4" s="44" t="str">
+      <c r="E4" s="43" t="str">
         <f t="shared" ref="E4:E8" si="1">"*"&amp;B4&amp;"*"</f>
         <v>*GJ0012890*</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="65.25">
       <c r="B5" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>(GJ0012891)</v>
       </c>
-      <c r="E5" s="44" t="str">
+      <c r="E5" s="43" t="str">
         <f t="shared" si="1"/>
         <v>*GJ0012891*</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="65.25">
       <c r="B6" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>(GJ0012892)</v>
       </c>
-      <c r="E6" s="44" t="str">
+      <c r="E6" s="43" t="str">
         <f t="shared" si="1"/>
         <v>*GJ0012892*</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="65.25">
       <c r="B7" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>(GJ0012893)</v>
       </c>
-      <c r="E7" s="44" t="str">
+      <c r="E7" s="43" t="str">
         <f t="shared" si="1"/>
         <v>*GJ0012893*</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="65.25">
       <c r="B8" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>(GJ0012894)</v>
       </c>
-      <c r="E8" s="44" t="str">
+      <c r="E8" s="43" t="str">
         <f t="shared" si="1"/>
         <v>*GJ0012894*</v>
       </c>
@@ -7657,6 +7733,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7672,35 +7749,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="117" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="126" t="s">
-        <v>343</v>
-      </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
+      <c r="A2" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>346</v>
+      <c r="A3" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -7708,10 +7785,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C5">
         <v>4000</v>
@@ -7719,10 +7796,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -7730,10 +7807,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="C7">
         <v>700</v>
@@ -7741,10 +7818,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C8">
         <v>850</v>
@@ -7752,10 +7829,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="C9">
         <v>5000</v>
@@ -7763,18 +7840,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="C10">
         <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="41" t="s">
-        <v>361</v>
+      <c r="B11" s="40" t="s">
+        <v>333</v>
       </c>
       <c r="C11">
         <f>SUM(C4:C10)</f>
@@ -7782,8 +7859,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="42" t="s">
-        <v>362</v>
+      <c r="B12" s="41" t="s">
+        <v>334</v>
       </c>
       <c r="C12">
         <f>C11*13/100</f>
@@ -7791,8 +7868,8 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="43" t="s">
-        <v>363</v>
+      <c r="B13" s="42" t="s">
+        <v>335</v>
       </c>
       <c r="C13">
         <f>C11+C12</f>
@@ -7810,6 +7887,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7824,142 +7902,142 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>365</v>
+        <v>336</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>337</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>367</v>
+        <v>338</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="C2" s="14">
         <v>43862</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="C3" s="14">
         <v>43864</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="C4" s="14">
         <v>44319</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C5" s="14">
         <v>44623</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="C6" s="14">
         <v>44719</v>
       </c>
       <c r="D6" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="C7" s="14">
         <v>44294</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="C8" s="14">
         <v>44322</v>
       </c>
       <c r="D8" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="C9" s="14">
         <v>44777</v>
       </c>
       <c r="D9" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="C10" s="14">
         <v>44687</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -7969,6 +8047,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7981,332 +8060,332 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="127" t="s">
-        <v>395</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
+      <c r="A1" s="130" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="128" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="131" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="129" t="s">
-        <v>397</v>
+      <c r="A4" s="45" t="s">
+        <v>369</v>
       </c>
       <c r="B4" s="12">
         <v>2018</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="39">
         <v>2019</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75">
-      <c r="A6" s="130" t="s">
-        <v>398</v>
+      <c r="A6" s="46" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="31">
+        <v>371</v>
+      </c>
+      <c r="B7" s="30">
         <v>50000</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="31">
+        <v>372</v>
+      </c>
+      <c r="B8" s="30">
         <v>30000</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>25000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B9" s="31">
+        <v>373</v>
+      </c>
+      <c r="B9" s="30">
         <v>15000</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" s="31">
+        <v>374</v>
+      </c>
+      <c r="B10" s="30">
         <v>50000</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>40000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>403</v>
-      </c>
-      <c r="B11" s="31">
+        <v>375</v>
+      </c>
+      <c r="B11" s="30">
         <v>150000</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>120000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="131">
+      <c r="B12" s="47">
         <f>SUM(B7:B11)</f>
         <v>295000</v>
       </c>
-      <c r="C12" s="131">
+      <c r="C12" s="47">
         <f>SUM(C7:C11)</f>
         <v>225000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75">
-      <c r="A14" s="130" t="s">
-        <v>404</v>
+      <c r="A14" s="46" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>399</v>
-      </c>
-      <c r="B15" s="31">
+        <v>371</v>
+      </c>
+      <c r="B15" s="30">
         <v>30000</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>400</v>
-      </c>
-      <c r="B16" s="31">
+        <v>372</v>
+      </c>
+      <c r="B16" s="30">
         <v>25000</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="30">
         <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>401</v>
-      </c>
-      <c r="B17" s="31">
+        <v>373</v>
+      </c>
+      <c r="B17" s="30">
         <v>10000</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <v>15000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>402</v>
-      </c>
-      <c r="B18" s="31">
+        <v>374</v>
+      </c>
+      <c r="B18" s="30">
         <v>40000</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <v>50000</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>403</v>
-      </c>
-      <c r="B19" s="31">
+        <v>375</v>
+      </c>
+      <c r="B19" s="30">
         <v>120000</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>150000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="131">
+      <c r="B20" s="47">
         <f>SUM(B15:B19)</f>
         <v>225000</v>
       </c>
-      <c r="C20" s="131">
+      <c r="C20" s="47">
         <f>SUM(C15:C19)</f>
         <v>295000</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75">
-      <c r="A23" s="132" t="s">
-        <v>405</v>
+      <c r="A23" s="48" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>406</v>
-      </c>
-      <c r="B24" s="133">
+        <v>378</v>
+      </c>
+      <c r="B24" s="49">
         <f>B12-B20</f>
         <v>70000</v>
       </c>
-      <c r="C24" s="133">
+      <c r="C24" s="49">
         <f>C12-C20</f>
         <v>-70000</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="132" t="s">
-        <v>407</v>
-      </c>
-      <c r="B26" s="129" t="s">
-        <v>408</v>
+      <c r="A26" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>409</v>
-      </c>
-      <c r="B27" s="31">
+        <v>381</v>
+      </c>
+      <c r="B27" s="30">
         <v>40000</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <v>40000</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>413</v>
-      </c>
-      <c r="B28" s="31">
+        <v>385</v>
+      </c>
+      <c r="B28" s="30">
         <v>40000</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <v>40000</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>410</v>
-      </c>
-      <c r="B29" s="31">
+        <v>382</v>
+      </c>
+      <c r="B29" s="30">
         <v>15000</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="30">
         <v>15000</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>411</v>
-      </c>
-      <c r="B30" s="31">
+        <v>383</v>
+      </c>
+      <c r="B30" s="30">
         <v>4000</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>412</v>
-      </c>
-      <c r="B31" s="31">
+        <v>384</v>
+      </c>
+      <c r="B31" s="30">
         <v>8000</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <v>5000</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="131">
+      <c r="B32" s="47">
         <f>SUM(B27:B31)</f>
         <v>107000</v>
       </c>
-      <c r="C32" s="131">
+      <c r="C32" s="47">
         <f>SUM(C27:C31)</f>
         <v>110000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75">
-      <c r="A34" s="132" t="s">
-        <v>414</v>
+      <c r="A34" s="48" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>415</v>
-      </c>
-      <c r="B35" s="31">
+        <v>387</v>
+      </c>
+      <c r="B35" s="30">
         <v>8000</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>7000</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>416</v>
-      </c>
-      <c r="B36" s="31">
+        <v>388</v>
+      </c>
+      <c r="B36" s="30">
         <v>8000</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <v>7000</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>417</v>
-      </c>
-      <c r="B37" s="31">
+        <v>389</v>
+      </c>
+      <c r="B37" s="30">
         <v>8000</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <v>7000</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="B38" s="131">
+      <c r="B38" s="47">
         <f>SUM(B35:B37)</f>
         <v>24000</v>
       </c>
-      <c r="C38" s="131">
+      <c r="C38" s="47">
         <f>SUM(C35:C37)</f>
         <v>21000</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75">
-      <c r="A40" s="132" t="s">
-        <v>418</v>
+      <c r="A40" s="48" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>419</v>
-      </c>
-      <c r="B41" s="131">
+        <v>391</v>
+      </c>
+      <c r="B41" s="47">
         <f>B24-B32+B38</f>
         <v>-13000</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <f>C24-C32+C38</f>
         <v>-159000</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="129" t="s">
-        <v>420</v>
-      </c>
-      <c r="B43" s="31">
+      <c r="A43" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B43" s="30">
         <v>2000</v>
       </c>
       <c r="C43">
@@ -8314,19 +8393,19 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="129" t="s">
-        <v>421</v>
+      <c r="A45" s="45" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>422</v>
-      </c>
-      <c r="B46" s="131">
+        <v>394</v>
+      </c>
+      <c r="B46" s="47">
         <f>B41-B43</f>
         <v>-15000</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <f>C41-C43</f>
         <v>-163000</v>
       </c>
@@ -8343,9 +8422,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet27"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -8356,7 +8436,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -8367,6 +8447,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8380,69 +8461,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="54"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
       <c r="K5">
         <v>123456789</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="56">
         <v>-123456789</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4">
@@ -8452,13 +8533,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -8469,7 +8550,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="61"/>
+      <c r="A7" s="65"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -8493,7 +8574,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="61"/>
+      <c r="A8" s="65"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -8517,7 +8598,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="61"/>
+      <c r="A9" s="65"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -8526,7 +8607,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="61"/>
+      <c r="A10" s="65"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -8553,13 +8634,13 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
       <c r="H13">
         <v>6</v>
       </c>
@@ -8577,13 +8658,13 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
     </row>
     <row r="17" spans="1:10">
       <c r="H17" t="s">
@@ -8597,16 +8678,16 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
       <c r="H18" t="s">
         <v>34</v>
       </c>
@@ -8618,12 +8699,12 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="54"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="H19" t="s">
         <v>36</v>
       </c>
@@ -8635,12 +8716,12 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="54"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -8663,11 +8744,11 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -8846,24 +8927,24 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8888,10 +8969,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8900,23 +8982,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -8950,44 +9032,44 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9002,6 +9084,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9016,116 +9099,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="H3" s="71" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="H3" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
@@ -9144,13 +9227,13 @@
         <f t="array" ref="F9">LEN(E9)</f>
         <v>13</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
@@ -9252,10 +9335,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9266,17 +9350,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="77" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
@@ -9293,11 +9377,11 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="74"/>
+      <c r="A4" s="78"/>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="132">
         <v>50</v>
       </c>
       <c r="F4" s="24">
@@ -9309,7 +9393,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="74"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
@@ -9329,7 +9413,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="74"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
@@ -9345,7 +9429,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="74"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
@@ -9361,7 +9445,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="74"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="5" t="s">
         <v>72</v>
       </c>
@@ -9373,7 +9457,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="74"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="5" t="s">
         <v>76</v>
       </c>
@@ -9388,86 +9472,86 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9482,6 +9566,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9495,14 +9580,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -9575,72 +9660,72 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9659,6 +9744,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9671,87 +9757,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="14">
         <f ca="1">TODAY()</f>
-        <v>44730</v>
-      </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
+        <v>44732</v>
+      </c>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="C8" s="54"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="15">
         <f ca="1">NOW()</f>
-        <v>44730.753180902779</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
+        <v>44732.231429629632</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="57" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="14">
@@ -9761,15 +9847,15 @@
         <f>DAY(C10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="54"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="14">
         <v>43892</v>
       </c>
@@ -9779,7 +9865,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="54"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="14">
         <v>43831</v>
       </c>
@@ -9803,10 +9889,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:K14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9815,14 +9902,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
@@ -9842,18 +9929,18 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="86" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="6">
         <f>SUM(C4:C8)</f>
         <v>94</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
@@ -9862,14 +9949,14 @@
       <c r="C5">
         <v>23</v>
       </c>
-      <c r="G5" s="83"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="6">
         <f>MIN(C4:C8)</f>
         <v>23</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
@@ -9878,24 +9965,24 @@
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="G6" s="83"/>
+      <c r="G6" s="87"/>
       <c r="I6" s="6">
         <f>MAX(C4:C8)</f>
         <v>25</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="G7" s="83"/>
+      <c r="G7" s="87"/>
       <c r="I7" s="6">
         <f>AVERAGE(C4:C8)</f>
         <v>23.5</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
@@ -9904,187 +9991,187 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="G8" s="83"/>
+      <c r="G8" s="87"/>
       <c r="I8" s="6">
         <f>COUNT(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
     </row>
     <row r="9" spans="1:12">
       <c r="C9">
         <v>35</v>
       </c>
-      <c r="G9" s="83"/>
+      <c r="G9" s="87"/>
       <c r="I9" s="6">
         <f>COUNTA(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10">
         <v>34</v>
       </c>
-      <c r="G10" s="83"/>
+      <c r="G10" s="87"/>
       <c r="I10" s="6">
         <f>COUNTBLANK(C4:C8)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
     </row>
     <row r="11" spans="1:12">
       <c r="C11">
         <v>27</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="G11" s="87"/>
       <c r="I11" s="6">
         <f>SMALL(C4:C8,3)</f>
         <v>23</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="G12" s="83"/>
+      <c r="G12" s="87"/>
       <c r="I12" s="6">
-        <f>LARGE(C4:C15,1)</f>
+        <f>LARGE(C4:C11,1)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10095,5 +10182,8 @@
     <mergeCell ref="B16:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I11" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/MS Excel Namrata (1) (2) (3) (2) (2) (2) (1) (2) (1).xlsx
+++ b/MS Excel Namrata (1) (2) (3) (2) (2) (2) (1) (2) (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="419">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform mathematical calculations on statistical data and totaling long columns of numbers or determining percentage and averages
 </t>
@@ -1376,6 +1376,15 @@
   </si>
   <si>
     <t>CONSUMER</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>SINGTAM</t>
   </si>
 </sst>
 </file>
@@ -1479,7 +1488,7 @@
       <family val="4"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1654,6 +1663,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1687,7 +1708,7 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1774,255 +1795,8 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2039,6 +1813,258 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2147,24 +2173,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67423616"/>
-        <c:axId val="68854912"/>
+        <c:axId val="72011136"/>
+        <c:axId val="72463488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67423616"/>
+        <c:axId val="72011136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68854912"/>
+        <c:crossAx val="72463488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68854912"/>
+        <c:axId val="72463488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,20 +2198,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67423616"/>
+        <c:crossAx val="72011136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3553,299 +3578,299 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="H8" s="55" t="s">
+      <c r="D8" s="67"/>
+      <c r="H8" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="53" t="s">
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="4:13">
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="4:13">
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51" t="s">
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
     </row>
     <row r="24" spans="4:13">
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
     </row>
     <row r="25" spans="4:13">
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
     </row>
     <row r="26" spans="4:13">
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
     </row>
     <row r="28" spans="4:13">
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="53" t="s">
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
     </row>
     <row r="29" spans="4:13">
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
     </row>
     <row r="30" spans="4:13">
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="4:13">
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="4:13">
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
     </row>
     <row r="33" spans="8:13">
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
     </row>
     <row r="34" spans="8:13">
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3875,39 +3900,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="104">
         <f>COUNTIF(B5:B14,"apples")</f>
         <v>2</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" t="s">
@@ -3928,65 +3953,65 @@
       <c r="B9" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13">
       <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" t="s">
@@ -4017,30 +4042,30 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="K4" s="73" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="K4" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
     </row>
     <row r="5" spans="1:18">
       <c r="E5" t="s">
@@ -4052,16 +4077,16 @@
       <c r="G5" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="106"/>
     </row>
     <row r="6" spans="1:18">
       <c r="E6" t="s">
@@ -4073,14 +4098,14 @@
       <c r="G6" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="106"/>
     </row>
     <row r="7" spans="1:18">
       <c r="E7" t="s">
@@ -4092,14 +4117,14 @@
       <c r="G7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
     </row>
     <row r="8" spans="1:18">
       <c r="E8" t="s">
@@ -4111,14 +4136,14 @@
       <c r="G8" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="106"/>
     </row>
     <row r="9" spans="1:18">
       <c r="E9" t="s">
@@ -4130,73 +4155,73 @@
       <c r="G9" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="60"/>
+      <c r="D11" s="72"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="56" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
       <c r="I12" s="27">
         <f>SUMIF(F5:F9,"&lt;100")</f>
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
       <c r="I13" s="28">
         <f>SUMIF(G5:G9,"computer",F5:F9)</f>
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="28">
         <f>COUNTIF(F5:F9,"&gt;35")</f>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
       <c r="I16" s="28">
         <f>AVERAGEIF(F5:F9,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -4236,13 +4261,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="12" t="s">
@@ -4260,16 +4285,16 @@
         <f>VLOOKUP(A4,A9:D14,3,0)</f>
         <v>7865987789</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
@@ -4279,16 +4304,16 @@
         <f>VLOOKUP(A5,A9:D14,4,0)</f>
         <v>deorali</v>
       </c>
-      <c r="H5" s="96" t="s">
+      <c r="H5" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
@@ -4298,14 +4323,14 @@
         <f>VLOOKUP(A6,A9:D14,2,0)</f>
         <v>eg@gmail.com</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
@@ -4315,40 +4340,40 @@
         <f>VLOOKUP(A7,A9:D14,4,0)</f>
         <v>vajra</v>
       </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6" t="s">
@@ -4363,14 +4388,14 @@
       <c r="D10" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="6" t="s">
@@ -4462,120 +4487,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="111" t="s">
         <v>165</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="110" t="s">
         <v>396</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4608,30 +4633,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="12" t="s">
@@ -4675,106 +4700,106 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="L21" s="100" t="s">
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="L21" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="100"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4805,35 +4830,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="117" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="L3" s="107" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="L3" s="120" t="s">
         <v>179</v>
       </c>
       <c r="M3" t="s">
@@ -4844,16 +4869,16 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="L4" s="108"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="L4" s="121"/>
       <c r="M4" t="s">
         <v>182</v>
       </c>
@@ -4862,16 +4887,16 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="L5" s="108"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="L5" s="121"/>
       <c r="M5" t="s">
         <v>183</v>
       </c>
@@ -4880,26 +4905,26 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="L7" s="16" t="s">
         <v>180</v>
       </c>
@@ -4912,70 +4937,70 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="L9" s="100" t="s">
+      <c r="A9" s="118"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="L9" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="M9" s="100"/>
+      <c r="M9" s="113"/>
       <c r="N9" s="23">
         <f>N7*30*12</f>
         <v>-11595347.057062184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5012,95 +5037,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="H2" s="134"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="55" t="s">
         <v>398</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="55" t="s">
         <v>400</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="G3" s="138" t="s">
+      <c r="E3" s="53"/>
+      <c r="G3" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="58" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="56" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="56" t="s">
         <v>403</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="56" t="s">
         <v>407</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="56" t="s">
         <v>397</v>
       </c>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="59" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="56" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="57" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="139" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="56" t="s">
         <v>398</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="59" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="139" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="59" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="G7" s="139" t="s">
+      <c r="G7" s="56" t="s">
         <v>400</v>
       </c>
-      <c r="H7" s="142" t="s">
+      <c r="H7" s="59" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5168,8 +5193,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5179,194 +5204,235 @@
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:5" ht="23.25">
+      <c r="A1" s="145" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="145" t="s">
         <v>265</v>
       </c>
-      <c r="C1" s="143" t="s">
+      <c r="C1" s="145" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.25">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:5" ht="23.25">
+      <c r="A2" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="144">
+      <c r="B2" s="61">
         <v>10000</v>
       </c>
-      <c r="C2" s="144">
+      <c r="C2" s="61">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="23.25">
-      <c r="A3" s="143" t="s">
+    <row r="3" spans="1:5" ht="23.25">
+      <c r="A3" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="B3" s="144">
+      <c r="B3" s="61">
         <v>20000</v>
       </c>
-      <c r="C3" s="144">
+      <c r="C3" s="61">
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="23.25">
-      <c r="A4" s="143" t="s">
+    <row r="4" spans="1:5" ht="23.25">
+      <c r="A4" s="60" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="61">
         <v>15000</v>
       </c>
-      <c r="C4" s="144">
+      <c r="C4" s="61">
         <v>45000</v>
       </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="146" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="146" t="s">
+        <v>417</v>
+      </c>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="56">
+        <v>19</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="56">
+        <v>18</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="31"/>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="124"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="124"/>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="111"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="111"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="124"/>
+      <c r="S20" s="124"/>
+      <c r="T20" s="124"/>
+      <c r="U20" s="124"/>
     </row>
     <row r="22" spans="2:21">
       <c r="B22" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="111" t="s">
+      <c r="C22" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="111"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
     </row>
     <row r="33" spans="4:8">
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
     </row>
     <row r="34" spans="4:8">
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
     </row>
     <row r="35" spans="4:8">
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
     </row>
     <row r="36" spans="4:8">
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
     </row>
     <row r="37" spans="4:8">
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
     </row>
     <row r="38" spans="4:8">
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5386,7 +5452,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5530,81 +5596,81 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="117" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5634,319 +5700,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="2:14">
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
     </row>
     <row r="105" spans="15:15">
       <c r="O105" s="1"/>
@@ -5967,59 +6033,59 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:I13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="112"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="126" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="F13" s="114" t="s">
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="F13" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6061,128 +6127,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="128" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="128"/>
+      <c r="P5" s="128"/>
+      <c r="Q5" s="128"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
       <c r="E7" t="s">
         <v>211</v>
       </c>
@@ -6803,11 +6869,11 @@
   <sheetData>
     <row r="1" spans="1:20" ht="28.5">
       <c r="A1" s="12"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="139" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -6818,190 +6884,190 @@
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="118" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="118" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="117" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="117" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="140" t="s">
         <v>266</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="123" t="s">
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="135" t="s">
         <v>267</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="135" t="s">
         <v>268</v>
       </c>
-      <c r="J4" s="118" t="s">
+      <c r="J4" s="141" t="s">
         <v>288</v>
       </c>
-      <c r="K4" s="122" t="s">
+      <c r="K4" s="136" t="s">
         <v>290</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="136" t="s">
         <v>287</v>
       </c>
-      <c r="M4" s="124" t="s">
+      <c r="M4" s="137" t="s">
         <v>289</v>
       </c>
-      <c r="N4" s="124"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="118" t="s">
+      <c r="N4" s="137"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="141" t="s">
         <v>284</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="127" t="s">
+      <c r="Q4" s="141"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="131" t="s">
         <v>292</v>
       </c>
-      <c r="T4" s="70" t="s">
+      <c r="T4" s="82" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="71"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="83"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="105"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="99" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="112" t="s">
         <v>269</v>
       </c>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="135" t="s">
         <v>268</v>
       </c>
-      <c r="M6" s="123" t="s">
+      <c r="M6" s="135" t="s">
         <v>282</v>
       </c>
-      <c r="N6" s="125" t="s">
+      <c r="N6" s="138" t="s">
         <v>270</v>
       </c>
-      <c r="O6" s="91" t="s">
+      <c r="O6" s="103" t="s">
         <v>283</v>
       </c>
-      <c r="P6" s="91" t="s">
+      <c r="P6" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="Q6" s="91" t="s">
+      <c r="Q6" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="R6" s="126" t="s">
+      <c r="R6" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="S6" s="128"/>
-      <c r="T6" s="71"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="83"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="71"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="83"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
@@ -7498,22 +7564,22 @@
       <c r="M18" s="31"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="36" t="s">
         <v>299</v>
       </c>
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" t="str">
         <f>INDEX(B8:B14,MATCH(MAX(S8:S14),S8:S14))</f>
         <v>neha</v>
@@ -7521,33 +7587,33 @@
       <c r="M20" s="31"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" t="str">
         <f>INDEX(B8:B14,MATCH(MIN(S8:S14),S8:S14))</f>
         <v>john</v>
       </c>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22">
         <f>AVERAGE(S8:S14)</f>
         <v>25285.714285714286</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
       <c r="E23">
         <f>SUM(S8:S14)</f>
         <v>177000</v>
@@ -7555,22 +7621,19 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H2:K3"/>
     <mergeCell ref="K4:K5"/>
@@ -7583,19 +7646,22 @@
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="O2:Q3"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7608,7 +7674,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7629,7 +7695,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="65.25">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>302</v>
       </c>
@@ -7645,7 +7711,7 @@
         <v>*GJ0012889*</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="65.25">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>303</v>
       </c>
@@ -7661,7 +7727,7 @@
         <v>*GJ0012890*</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="65.25">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>304</v>
       </c>
@@ -7677,7 +7743,7 @@
         <v>*GJ0012891*</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="65.25">
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>305</v>
       </c>
@@ -7693,7 +7759,7 @@
         <v>*GJ0012892*</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="65.25">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>306</v>
       </c>
@@ -7709,7 +7775,7 @@
         <v>*GJ0012893*</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="65.25">
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>307</v>
       </c>
@@ -7737,7 +7803,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7748,18 +7814,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="142" t="s">
         <v>315</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="37" t="s">
@@ -7853,7 +7919,7 @@
       <c r="B11" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="147">
         <f>SUM(C4:C10)</f>
         <v>16800</v>
       </c>
@@ -7862,7 +7928,7 @@
       <c r="B12" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="148">
         <f>C11*13/100</f>
         <v>2184</v>
       </c>
@@ -7871,7 +7937,7 @@
       <c r="B13" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="38">
         <f>C11+C12</f>
         <v>18984</v>
       </c>
@@ -7891,7 +7957,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8051,7 +8117,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8060,18 +8126,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="143" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="144" t="s">
         <v>368</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="45" t="s">
@@ -8376,7 +8442,7 @@
         <f>B24-B32+B38</f>
         <v>-13000</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="149">
         <f>C24-C32+C38</f>
         <v>-159000</v>
       </c>
@@ -8405,7 +8471,7 @@
         <f>B41-B43</f>
         <v>-15000</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="47">
         <f>C41-C43</f>
         <v>-163000</v>
       </c>
@@ -8425,7 +8491,7 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -8461,69 +8527,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="58"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="58"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
       <c r="K5">
         <v>123456789</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="68">
         <v>-123456789</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56" t="s">
+      <c r="N5" s="68"/>
+      <c r="O5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
     </row>
     <row r="6" spans="1:17" ht="30" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="76" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4">
@@ -8533,13 +8599,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -8550,7 +8616,7 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="65"/>
+      <c r="A7" s="77"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -8574,7 +8640,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="65"/>
+      <c r="A8" s="77"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -8598,7 +8664,7 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="65"/>
+      <c r="A9" s="77"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -8607,7 +8673,7 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="65"/>
+      <c r="A10" s="77"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -8634,13 +8700,13 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
       <c r="H13">
         <v>6</v>
       </c>
@@ -8658,13 +8724,13 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
     </row>
     <row r="17" spans="1:10">
       <c r="H17" t="s">
@@ -8678,16 +8744,16 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
       <c r="H18" t="s">
         <v>34</v>
       </c>
@@ -8699,12 +8765,12 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="58"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
       <c r="H19" t="s">
         <v>36</v>
       </c>
@@ -8716,12 +8782,12 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="58"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -8744,11 +8810,11 @@
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -8927,24 +8993,24 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8982,23 +9048,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -9032,44 +9098,44 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9099,116 +9165,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="H3" s="75" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="H3" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" t="s">
@@ -9227,13 +9293,13 @@
         <f t="array" ref="F9">LEN(E9)</f>
         <v>13</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" t="s">
@@ -9350,17 +9416,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="89" t="s">
         <v>70</v>
       </c>
       <c r="B3" t="s">
@@ -9377,11 +9443,11 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="78"/>
+      <c r="A4" s="90"/>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="132">
+      <c r="E4" s="50">
         <v>50</v>
       </c>
       <c r="F4" s="24">
@@ -9393,7 +9459,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="78"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="5" t="s">
         <v>73</v>
       </c>
@@ -9413,7 +9479,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="78"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
@@ -9429,7 +9495,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="78"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
@@ -9445,7 +9511,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="78"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="5" t="s">
         <v>72</v>
       </c>
@@ -9457,7 +9523,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="78"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="5" t="s">
         <v>76</v>
       </c>
@@ -9472,86 +9538,86 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9580,14 +9646,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="11" t="s">
@@ -9660,72 +9726,72 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9757,87 +9823,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="69" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="14">
         <f ca="1">TODAY()</f>
-        <v>44732</v>
-      </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
+        <v>44733</v>
+      </c>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="C8" s="58"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="15">
         <f ca="1">NOW()</f>
-        <v>44732.231429629632</v>
-      </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
+        <v>44733.726440046295</v>
+      </c>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="69" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="14">
@@ -9847,15 +9913,15 @@
         <f>DAY(C10)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="58"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="14">
         <v>43892</v>
       </c>
@@ -9865,7 +9931,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="58"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="14">
         <v>43831</v>
       </c>
@@ -9902,14 +9968,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="7" t="s">
@@ -9929,18 +9995,18 @@
       <c r="C4">
         <v>23</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="98" t="s">
         <v>114</v>
       </c>
       <c r="I4" s="6">
         <f>SUM(C4:C8)</f>
         <v>94</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" t="s">
@@ -9949,14 +10015,14 @@
       <c r="C5">
         <v>23</v>
       </c>
-      <c r="G5" s="87"/>
+      <c r="G5" s="99"/>
       <c r="I5" s="6">
         <f>MIN(C4:C8)</f>
         <v>23</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" t="s">
@@ -9965,24 +10031,24 @@
       <c r="C6">
         <v>25</v>
       </c>
-      <c r="G6" s="87"/>
+      <c r="G6" s="99"/>
       <c r="I6" s="6">
         <f>MAX(C4:C8)</f>
         <v>25</v>
       </c>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="G7" s="87"/>
+      <c r="G7" s="99"/>
       <c r="I7" s="6">
         <f>AVERAGE(C4:C8)</f>
         <v>23.5</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
@@ -9991,187 +10057,187 @@
       <c r="C8">
         <v>23</v>
       </c>
-      <c r="G8" s="87"/>
+      <c r="G8" s="99"/>
       <c r="I8" s="6">
         <f>COUNT(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:12">
       <c r="C9">
         <v>35</v>
       </c>
-      <c r="G9" s="87"/>
+      <c r="G9" s="99"/>
       <c r="I9" s="6">
         <f>COUNTA(C4:C8)</f>
         <v>4</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10">
         <v>34</v>
       </c>
-      <c r="G10" s="87"/>
+      <c r="G10" s="99"/>
       <c r="I10" s="6">
         <f>COUNTBLANK(C4:C8)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:12">
       <c r="C11">
         <v>27</v>
       </c>
-      <c r="G11" s="87"/>
+      <c r="G11" s="99"/>
       <c r="I11" s="6">
         <f>SMALL(C4:C8,3)</f>
         <v>23</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="G12" s="87"/>
+      <c r="G12" s="99"/>
       <c r="I12" s="6">
         <f>LARGE(C4:C11,1)</f>
         <v>35</v>
       </c>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="5">
